--- a/app/accounting/403000AC/PCE INV 403066.xlsx
+++ b/app/accounting/403000AC/PCE INV 403066.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\xero-asana-integration\app\accounting\403000AC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\00-Bridge Database\403000AC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FB25B0-AAB3-475A-B101-D76C82536D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEF594C-5B99-4904-B031-D1D21FD307E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="48510" yWindow="7035" windowWidth="21600" windowHeight="11295" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="13" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Date:</t>
   </si>
@@ -131,19 +131,25 @@
     <t>Payment Instalments</t>
   </si>
   <si>
-    <t>Yee</t>
-  </si>
-  <si>
-    <t>ABN\ACN: 123456</t>
-  </si>
-  <si>
-    <t>asdasdasd</t>
+    <t>Ruwaida</t>
+  </si>
+  <si>
+    <t>UR Refrigeration &amp; Air Conditioning</t>
+  </si>
+  <si>
+    <t>24-28 Adderley Street East. Lidcombe. NSW. 2141</t>
+  </si>
+  <si>
+    <t>70-72 Castle Hill Road, West Pennant Hills</t>
   </si>
   <si>
     <t>Mechanical Service design and documentation</t>
   </si>
   <si>
-    <t>Fire Service design and documentation</t>
+    <t>Mechanical Service certification of car park makeup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total: </t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -611,6 +617,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -990,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="45">
-        <v>45370</v>
+        <v>45401</v>
       </c>
       <c r="K4" s="43"/>
       <c r="L4" s="7"/>
@@ -1004,8 +1014,7 @@
       <c r="U4" s="72"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" t="s">
+      <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="8"/>
@@ -1029,8 +1038,7 @@
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" t="s">
+      <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="8"/>
@@ -1053,7 +1061,9 @@
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1138,7 +1148,7 @@
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="52"/>
       <c r="G12" s="53"/>
@@ -1162,7 +1172,7 @@
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -1175,22 +1185,34 @@
       <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
+      <c r="G15" s="53">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="48">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="23">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="23">
+        <v>1100</v>
+      </c>
       <c r="L15" s="36"/>
       <c r="S15" s="37"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>30</v>
-      </c>
+      <c r="A16" s="36"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="66"/>
+      <c r="F16" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="75">
+        <v>1000</v>
+      </c>
       <c r="H16" s="67"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
@@ -1458,10 +1480,10 @@
         <v>1</v>
       </c>
       <c r="I39" s="25">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J39" s="25">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
